--- a/m7/Lemon_Tree/FurureLoan/utils/do_excel/new.xlsx
+++ b/m7/Lemon_Tree/FurureLoan/utils/do_excel/new.xlsx
@@ -7,7 +7,9 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,6 +394,11 @@
           <t>result</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -407,7 +414,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'mobilephone':'18611848257','pwd':'nishi458','regname':'乐乐'}</t>
+          <t>{'mobilephone': 18611848258, 'pwd': 'nishi458', 'regname': '乐乐'}</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -415,6 +422,11 @@
       </c>
       <c r="F2" t="n">
         <v>20110</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -431,7 +443,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'mobilephone':'18611848257','pwd':'nishi458','regname':'乐乐'}</t>
+          <t>{'mobilephone': 18611848258, 'pwd': 'nishi458', 'regname': '乐乐'}</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -439,6 +451,11 @@
       </c>
       <c r="F3" t="n">
         <v>20110</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -455,7 +472,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'mobilephone':'1861184825','pwd':'nishi458','regname':'乐乐'}</t>
+          <t>{'mobilephone': 1861184826, 'pwd': 'nishi458', 'regname': '乐乐'}</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -463,6 +480,11 @@
       </c>
       <c r="F4" t="n">
         <v>20109</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -479,7 +501,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'mobilephone':'13810504359','pwd':'123456','regname':'乐乐'}</t>
+          <t>{'mobilephone': 13810504360, 'pwd': '123456', 'regname': '乐乐'}</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -487,6 +509,11 @@
       </c>
       <c r="F5" t="n">
         <v>20110</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -512,6 +539,379 @@
       <c r="F6" t="n">
         <v>20103</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>case_title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>case_data</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>case_expected</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>输入正确的用户名和密码登录</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 18611848258, 'pwd': 'nishi458'}</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>输入正确的用户名和错误的密码登录</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 18611848258, 'pwd': 'nishi459'}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>20111</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20111</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>输入错误的用户名和正确的密码登录</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 1861184826, 'pwd': 'nishi458'}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>20111</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20111</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>只输入用户名登录</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 1861184826, 'pwd': ''}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>20103</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20103</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>只输入密码登录</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'','pwd':'nishi458'}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20103</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>case_title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>case_data</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>case_expected</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>正确手机号和正确金额充值</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 18611848258, 'amount': '200000'}</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>输入不存在的手机号充值</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 18611848259, 'amount': '200000'}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>20104</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20104</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>不输入手机号充值</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'','amount':'200000'}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>20103</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金额为0充值</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 18611848258, 'amount': '0'}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>10001</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金额为51万充值</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'mobilephone': 18611848258, 'amount': '510000'}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20117</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
